--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>699380.4208024781</v>
+        <v>730005.9234762467</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12395515.18280278</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240759</v>
+        <v>5871787.915011356</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9709974.432811251</v>
+        <v>9642482.858612642</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>101.7845119142507</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>233.9655042752161</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>28.91812342832925</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>26.17372043046394</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.41955951747565</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.69042344357041</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>23.54408597586876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>240.6260671030879</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705085</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.315721201862299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>90.33154783449038</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>14.80090308483436</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>236.6956683756637</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>169.3666852850178</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>91.63547331376773</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>127.553294252496</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.606538748304</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>20.84901245549815</v>
+        <v>138.6444210303388</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>94.53370919195457</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>36.80199454068629</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.9666536491695</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.90446037005012</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>70.39150511372367</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>84.69473660442775</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>35.29706439293657</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>274.4610837134359</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>262.2618143196422</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>209.1480822693394</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>132.7035720837719</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>168.1158122680963</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>69.11474563697955</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>97.27989568773788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.8098762225373</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>104.0571652267679</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>224.7411810187706</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>263.6918888957911</v>
+        <v>2.398536716038238</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>334.9753613846901</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>112.3703473220574</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>131.5730391207954</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8196895246582</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>59.32996291532819</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>67.6332161998255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>92.33406830385357</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>98.99191809941696</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>57.98576519627196</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>157.714110798666</v>
       </c>
       <c r="C38" t="n">
-        <v>356.6602431279373</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>118.0927541397963</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>175.2847318865227</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>155.1800469577935</v>
       </c>
       <c r="Y41" t="n">
-        <v>173.5346346387826</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>114.4713889389689</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>126.5388824951718</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>14.20188851095002</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>282.9660213629343</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1321.266375419619</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.266375419619</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="D2" t="n">
-        <v>1218.453737122396</v>
+        <v>429.1574491363373</v>
       </c>
       <c r="E2" t="n">
-        <v>832.6654845241519</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F2" t="n">
-        <v>421.6795797345444</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>1932.131034707465</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>1579.362379437351</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1205.896621176271</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.266375419619</v>
+        <v>815.7572892004591</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>728.176975589136</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>553.723946308009</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>404.7895366467577</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>245.5520816413022</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>99.01752366818718</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>99.01752366818718</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>371.4749568374566</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>629.0260923974441</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.719899556346</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1508.502423550977</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1799.861669805543</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2014.370085366444</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2154.745546059888</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>1801.393576539635</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1566.241468307892</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1312.004111579691</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1104.152611374158</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>896.3923126092041</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>725.4736447490993</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>740.8007574127486</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>895.8247485356767</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1149.728518883894</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1427.823567875085</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1704.740754596115</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1944.502301363958</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2126.139042482092</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2059.295330676735</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1860.115845060961</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1860.115845060961</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1570.989524034985</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323091</v>
+        <v>1316.305035829098</v>
       </c>
       <c r="W4" t="n">
-        <v>606.5973764953485</v>
+        <v>1026.887865792137</v>
       </c>
       <c r="X4" t="n">
-        <v>378.6078255973312</v>
+        <v>798.8983148941199</v>
       </c>
       <c r="Y4" t="n">
-        <v>378.6078255973312</v>
+        <v>725.4736447490993</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1234.787393074839</v>
+        <v>1164.26325471341</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.005488048709</v>
+        <v>795.3007377729979</v>
       </c>
       <c r="D5" t="n">
-        <v>852.7397894419585</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.926725050651</v>
+        <v>1941.002426753343</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074839</v>
+        <v>1550.863094777531</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966393</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155124</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542611</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488056</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756906</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182527</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057973</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>638.3296170496764</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.50262973664</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4682,7 +4682,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
         <v>1515.131277087194</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2580926322055</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2580926322055</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322055</v>
+        <v>1153.201555841513</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322055</v>
+        <v>932.4089766979826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1154.923604942954</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>785.9610880025423</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>785.9610880025423</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>785.9610880025423</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4816,19 +4816,19 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4840,16 +4840,16 @@
         <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1989.807945819659</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>1637.039290549545</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.039290549545</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.899958573734</v>
+        <v>1154.923604942954</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180663</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495381</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287797</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463959</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2294.546680296256</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>834.9380653188541</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0018823909472</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1465.368660190641</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1465.368660190641</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1465.368660190641</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1465.368660190641</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>1465.368660190641</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X10" t="n">
-        <v>1237.379109292624</v>
+        <v>514.036292340028</v>
       </c>
       <c r="Y10" t="n">
-        <v>1016.586530149094</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1519.109083729354</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.146566788942</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D11" t="n">
-        <v>791.8808681821918</v>
+        <v>581.1420803965852</v>
       </c>
       <c r="E11" t="n">
-        <v>406.0926155839475</v>
+        <v>195.353827798341</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>195.353827798341</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1519.109083729354</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672847</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>1624.71859813194</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.729047233923</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.936468090393</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.124011696101</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.635416552713</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>909.3697179459625</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>523.5814653477182</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2866.097597267229</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W14" t="n">
-        <v>2513.328941997115</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X14" t="n">
-        <v>2139.863183736035</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.723851760223</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>651.5308283972842</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>468.9531604059532</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y16" t="n">
-        <v>248.1605812624231</v>
+        <v>651.5308283972842</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1225.638517792182</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C17" t="n">
-        <v>1225.638517792182</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5597,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,34 +5612,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.0623554265549</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>152.0623554265549</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>152.0623554265549</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5673,16 +5673,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983421</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003247</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y19" t="n">
-        <v>333.7108202567946</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1636.624422581789</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
         <v>892.5704713767946</v>
@@ -5743,37 +5743,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W20" t="n">
-        <v>2413.363594621723</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X20" t="n">
-        <v>2413.363594621723</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y20" t="n">
-        <v>2023.224262645911</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.1808689801002</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C22" t="n">
-        <v>532.2446860521933</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D22" t="n">
-        <v>382.1280466398576</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1716.033858927544</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1426.930992053188</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V22" t="n">
-        <v>1172.246503847301</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W22" t="n">
-        <v>882.8293338103399</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X22" t="n">
-        <v>882.8293338103399</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.8293338103399</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -5998,7 +5998,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6007,34 +6007,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.4482993600903</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1739.201569949316</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1517.434954518842</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1228.332087644485</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>973.6475994385985</v>
+        <v>1189.344382730594</v>
       </c>
       <c r="W25" t="n">
-        <v>684.2304294016378</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X25" t="n">
-        <v>456.2408785036204</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.4482993600903</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1242.542113288976</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>884.2764146822258</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>884.2764146822258</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2782.326111562134</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2782.326111562134</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2782.326111562134</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5649387724261</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>216.6287558445192</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1157.656147913291</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V28" t="n">
-        <v>902.9716597074041</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W28" t="n">
-        <v>613.5544896704434</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5649387724261</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5649387724261</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1678.62132134232</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>790.659319924054</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>404.8710673258097</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>404.8710673258097</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X29" t="n">
-        <v>2068.760653318132</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y29" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1794.392488370518</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1572.625872940044</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1283.523006065687</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1028.838517859801</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>739.4213478228399</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2107.513093752761</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C32" t="n">
-        <v>1738.550576812349</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D32" t="n">
-        <v>1380.284878205598</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>994.4966256073542</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5107208177467</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>168.4382706627432</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792694</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2884.252265792694</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y32" t="n">
-        <v>2494.112933816883</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.6479724696239</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>452.6479724696239</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>302.5313330572882</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
         <v>234.2149530574644</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1330.744855581915</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.6479724696239</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1736.589769957182</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1367.627253016771</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1009.36155441002</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>623.5733018117758</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6952,7 +6952,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997116</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2513.328941997116</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>2123.189610021304</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C37" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1677.037183919085</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.934317044728</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.249828838841</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>843.8326588018809</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>615.8431079038636</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.0505287603335</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1252.833343223196</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C38" t="n">
-        <v>892.5704713767946</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W38" t="n">
-        <v>2403.038273524209</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X38" t="n">
-        <v>2029.572515263129</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y38" t="n">
-        <v>1639.433183287318</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>333.710820256795</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C40" t="n">
-        <v>333.710820256795</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D40" t="n">
-        <v>333.710820256795</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>185.7977266744019</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983425</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X40" t="n">
-        <v>554.5033994003252</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y40" t="n">
-        <v>333.710820256795</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1523.222118183415</v>
+        <v>1502.309837160186</v>
       </c>
       <c r="C41" t="n">
-        <v>1523.222118183415</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D41" t="n">
-        <v>1164.956419576664</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E41" t="n">
-        <v>779.1681669784198</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.509627919559</v>
+        <v>2279.049009200119</v>
       </c>
       <c r="Y41" t="n">
-        <v>1523.222118183415</v>
+        <v>1888.909677224308</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7681,19 +7681,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3197.788768583745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3197.788768583745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7703,70 +7703,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>249.7936412903429</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>80.85745836243598</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368017</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621301</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>880.2242361621301</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X46" t="n">
-        <v>652.2346852641127</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y46" t="n">
-        <v>431.4421061205826</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>218.9766784751438</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>47.37521419091337</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>45.76488231024587</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>231.2582814363246</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.016902016518</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>252.8985297064322</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>93.78675419491879</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22640,10 +22640,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>65.5826898335259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.4124206644616</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,16 +22716,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>145.8942299085244</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>341.7288057951388</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>129.1050335753811</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>144.2997518163501</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.3781075545468</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>392.0751426568771</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>91.05659009447123</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,25 +23229,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>25.29577507671968</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>134.0741820752694</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>283.3684314009574</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>208.6313999077495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.6739858810928</v>
+        <v>147.8785773062522</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>270.739182579053</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>290.9502639294486</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>23.46730899739971</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.8293812934305</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>294.8813866572839</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>61.73922604214142</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>183.2875889591582</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>90.81180805757162</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>86.97915439777086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4008670068298</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.8810812683229</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.8793596908057</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>280.1262230804335</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>92.48912964370402</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.32776710129068</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>302.8188805149435</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>26.25399094013139</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>22.51994930982175</v>
+        <v>283.8133014895747</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>75.94636426876338</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>257.3607533564116</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>58.19598621064651</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>92.45320224634935</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>235.2778014719923</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.80074644674367</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>193.8777699017593</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>307.8841276422945</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>161.5631840798972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>225.0197308648146</v>
       </c>
       <c r="C38" t="n">
-        <v>8.612648643070202</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.32829388313492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>111.2382664500683</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>214.5510537206756</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.7033040172709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.1132644131259</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>124.4562894637302</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>134.4135845072623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>3.556976973656674</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779378.7168172043</v>
+        <v>711887.142618594</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>779378.7168172044</v>
+        <v>779378.7168172045</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074498</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074498</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074498</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859812.0750074496</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859812.0750074497</v>
+        <v>859812.0750074496</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859812.0750074495</v>
+        <v>859812.0750074497</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>279547.2423401893</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943084</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="O2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="P2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1004321.885230093</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104983.4505300438</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171904</v>
@@ -26380,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>141841.1257376602</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>25342.99488522372</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14971.45584523218</v>
+        <v>13464.32877611457</v>
       </c>
       <c r="C4" t="n">
         <v>14971.45584523219</v>
       </c>
       <c r="D4" t="n">
-        <v>14971.45584523216</v>
+        <v>14971.45584523219</v>
       </c>
       <c r="E4" t="n">
+        <v>7940.571207054563</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7940.571207054563</v>
+      </c>
+      <c r="G4" t="n">
         <v>7940.571207054552</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7940.571207054552</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7940.571207054567</v>
       </c>
       <c r="H4" t="n">
         <v>7940.571207054552</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>85199.08185587224</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
-      </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-921916.8440885794</v>
+        <v>-824092.9217348506</v>
       </c>
       <c r="C6" t="n">
-        <v>192834.9394873402</v>
+        <v>92556.20540699855</v>
       </c>
       <c r="D6" t="n">
-        <v>192834.9394873397</v>
+        <v>197539.6559370426</v>
       </c>
       <c r="E6" t="n">
-        <v>73201.01808722138</v>
+        <v>76329.58845547613</v>
       </c>
       <c r="F6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726668</v>
       </c>
       <c r="G6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726665</v>
       </c>
       <c r="H6" t="n">
-        <v>255273.9979044116</v>
+        <v>258402.5682726667</v>
       </c>
       <c r="I6" t="n">
-        <v>255273.9979044116</v>
+        <v>258402.5682726666</v>
       </c>
       <c r="J6" t="n">
-        <v>87668.82009442916</v>
+        <v>116561.4425350065</v>
       </c>
       <c r="K6" t="n">
-        <v>255273.9979044117</v>
+        <v>233059.5733874429</v>
       </c>
       <c r="L6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726665</v>
       </c>
       <c r="M6" t="n">
-        <v>207721.7321109967</v>
+        <v>210850.3024792516</v>
       </c>
       <c r="N6" t="n">
-        <v>255273.9979044118</v>
+        <v>258402.5682726667</v>
       </c>
       <c r="O6" t="n">
-        <v>255273.9979044117</v>
+        <v>258402.5682726665</v>
       </c>
       <c r="P6" t="n">
-        <v>255273.9979044116</v>
+        <v>258402.5682726665</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.710664537684</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26807,16 +26807,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,10 +26825,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.710664537684</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>542.1149567261629</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>141.7933946398424</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.85280893410649</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348407</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231597</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971896</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212424</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>42.7482670934959</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M6" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>566.6829634324475</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.584832100039</v>
+        <v>584.5244463807094</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>270.4976243473727</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
